--- a/biology/Histoire de la zoologie et de la botanique/Edward_Adams/Edward_Adams.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Adams/Edward_Adams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Adams (24 février 1824 – 12 novembre 1856) est un médecin britannique, naturaliste et explorateur de l'Arctique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né en 1824 à Great Barton, près de Bury St Edmunds dans le Suffolk. Il se passionna pour l'histoire naturelle dès l'enfance.
 Devenu chirurgien de marine en avril 1847, il part comme volontaire en mai 1848 comme membre de l'expédition arctique de Sir James Clark Ross (1800-1862), à bord du HMS Investigator. Cette expédition a pour but de rechercher le passage Nord-Ouest entre l'Océan Atlantique et l'Océan Pacifique, et aussi l'expédition disparue de Sir John Franklin (1786-1847). Pendant les huit mois que durent cette expédition, il collectionne et dessine de nombreux oiseaux arctiques.
